--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8410336947335383</v>
+        <v>0.8415738951385362</v>
       </c>
       <c r="E2">
-        <v>0.8410336947335383</v>
+        <v>0.8415738951385362</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0002856407613655882</v>
+        <v>0.0002850719474319215</v>
       </c>
       <c r="E3">
-        <v>0.0002856407613655882</v>
+        <v>0.0002850719474319215</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9393889101601801</v>
+        <v>0.9388877107138294</v>
       </c>
       <c r="E4">
-        <v>0.9393889101601801</v>
+        <v>0.9388877107138294</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0009118372047596177</v>
+        <v>0.0009133948923708115</v>
       </c>
       <c r="E5">
-        <v>0.0009118372047596177</v>
+        <v>0.0009133948923708115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.03029774883626852</v>
+        <v>0.03007579956617298</v>
       </c>
       <c r="E6">
-        <v>0.03029774883626852</v>
+        <v>0.03007579956617298</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9979543857752449</v>
+        <v>0.9977060769112752</v>
       </c>
       <c r="E7">
-        <v>0.002045614224755132</v>
+        <v>0.002293923088724781</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9977304565531133</v>
+        <v>0.0001006203521423363</v>
       </c>
       <c r="E8">
-        <v>0.002269543446886679</v>
+        <v>0.9998993796478577</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9973929249915533</v>
+        <v>0.0001474052275416579</v>
       </c>
       <c r="E9">
-        <v>0.002607075008446702</v>
+        <v>0.9998525947724584</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9977928861190184</v>
+        <v>7.220998930128472E-07</v>
       </c>
       <c r="E10">
-        <v>0.002207113880981604</v>
+        <v>0.999999277900107</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9978361693422625</v>
+        <v>7.615828992815823E-06</v>
       </c>
       <c r="E11">
-        <v>0.002163830657737509</v>
+        <v>0.9999923841710072</v>
       </c>
       <c r="F11">
-        <v>0.4685610234737396</v>
+        <v>4.862440586090088</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.958198841570817</v>
+        <v>0.9581685755394228</v>
       </c>
       <c r="E12">
-        <v>0.958198841570817</v>
+        <v>0.9581685755394228</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3.75871000617454E-05</v>
+        <v>3.759235189215114E-05</v>
       </c>
       <c r="E13">
-        <v>3.75871000617454E-05</v>
+        <v>3.759235189215114E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9878317600988535</v>
+        <v>0.9878562164160773</v>
       </c>
       <c r="E14">
-        <v>0.9878317600988535</v>
+        <v>0.9878562164160773</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>6.948684067766772E-05</v>
+        <v>6.9446419436554E-05</v>
       </c>
       <c r="E15">
-        <v>6.948684067766772E-05</v>
+        <v>6.9446419436554E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.008562837744477202</v>
+        <v>0.008555686559505121</v>
       </c>
       <c r="E16">
-        <v>0.008562837744477202</v>
+        <v>0.008555686559505121</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9992382848914226</v>
+        <v>0.9999922195363712</v>
       </c>
       <c r="E17">
-        <v>0.0007617151085773655</v>
+        <v>7.780463628814793E-06</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9991552904530745</v>
+        <v>2.344993683226224E-06</v>
       </c>
       <c r="E18">
-        <v>0.0008447095469255039</v>
+        <v>0.9999976550063168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9989917723095527</v>
+        <v>2.673337821742255E-05</v>
       </c>
       <c r="E19">
-        <v>0.001008227690447283</v>
+        <v>0.9999732666217825</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9991824952870114</v>
+        <v>4.179592805526816E-07</v>
       </c>
       <c r="E20">
-        <v>0.0008175047129885815</v>
+        <v>0.9999995820407195</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9992022963403022</v>
+        <v>7.412130801613835E-07</v>
       </c>
       <c r="E21">
-        <v>0.0007977036596977793</v>
+        <v>0.9999992587869199</v>
       </c>
       <c r="F21">
-        <v>0.7596695423126221</v>
+        <v>5.988943576812744</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
